--- a/data/Site_setting_data.xlsx
+++ b/data/Site_setting_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Java\jianyuluntan\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D71308-6AB6-41C4-B92B-65D4B764D514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709453F8-8091-4D83-A299-68DE4F7BFD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forum_title" sheetId="1" r:id="rId1"/>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -411,6 +411,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12345</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -420,10 +425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65290587-8D4E-4CD0-8787-D16DE97F0464}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -451,6 +456,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12345</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
